--- a/目录.xlsx
+++ b/目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8400"/>
+    <workbookView windowWidth="21495" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,6 +337,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>SQL</t>
     </r>
     <r>
@@ -786,7 +791,57 @@
     <t>XSS类型-DOM型XSS</t>
   </si>
   <si>
-    <t>XSS字符绕过-绕过过滤一(大小写绕过)</t>
+    <r>
+      <t>XSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符绕过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绕过过滤一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小写绕过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>XSS字符绕过-绕过过滤二(黑名单绕过)</t>
@@ -1499,7 +1554,33 @@
     <t>拿shell</t>
   </si>
   <si>
-    <t>利用数据库备份获取shell-利用数据库备份获取shell</t>
+    <r>
+      <t>利用数据库备份获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shell-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用数据库备份获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shell</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2247,8 +2328,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -2296,24 +2377,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2327,52 +2423,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2388,24 +2439,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2424,9 +2467,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2459,7 +2540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2471,7 +2558,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2483,73 +2684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,79 +2714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,7 +2741,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2676,6 +2772,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2714,33 +2821,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2749,142 +2830,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3243,8 +3324,8 @@
   <sheetPr/>
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3468,7 +3549,7 @@
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3819,7 +3900,7 @@
       <c r="B76" t="s">
         <v>93</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>94</v>
       </c>
     </row>
